--- a/Documentação/Planilha de Risco/riscos.xlsx
+++ b/Documentação/Planilha de Risco/riscos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC9BEBC-203C-4659-80DE-ACDEEC86869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C2665-8393-4FD9-83DB-9F074573C2DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D0EB0DE2-D01A-4E5B-82E2-747FDC46F3A4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Planilha de riscos</t>
   </si>
@@ -128,47 +128,59 @@
     <t xml:space="preserve">Integrar a nova metodologia a equipe de maneira que todos absorvam as tarefas e datas </t>
   </si>
   <si>
-    <t>Com reuniões diárias. Caso o integrante insista nesse comportamento, o mesmo será advertido.</t>
-  </si>
-  <si>
-    <t>Reuniões daily e verificar as tarefas de cada um</t>
-  </si>
-  <si>
     <t>Realizar reuniões com o cliente apresentando o que foi feito</t>
   </si>
   <si>
-    <t>Entender quais foram as expectativas não atendidos, caso possivel, trabalhar em cima delas</t>
-  </si>
-  <si>
     <t>Descrição do risco</t>
   </si>
   <si>
     <t>Com as reuniões semanais, é possivel realizar o controle de priorização de projetos e datas.</t>
   </si>
   <si>
-    <t>Baixo 1</t>
-  </si>
-  <si>
-    <t>Médio 2</t>
-  </si>
-  <si>
-    <t>Alto 3</t>
-  </si>
-  <si>
-    <t>Provavel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muito </t>
-  </si>
-  <si>
-    <t>Pouco</t>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Baixo</t>
+  </si>
+  <si>
+    <t>Fator de Risco</t>
+  </si>
+  <si>
+    <t>Risco Muito Alto</t>
+  </si>
+  <si>
+    <t>Risco Alto</t>
+  </si>
+  <si>
+    <t>Risco Moderado</t>
+  </si>
+  <si>
+    <t>Risco Baixo</t>
+  </si>
+  <si>
+    <t>Risco Muito Baixo</t>
+  </si>
+  <si>
+    <t>Com acompanhamento frequente. Caso o integrante insista nesse comportamento, o mesmo será advertido.</t>
+  </si>
+  <si>
+    <t>Reuniões daily e verificar as tarefas e o prazo de cada integrante</t>
+  </si>
+  <si>
+    <t>Entender quais foram as expectativas não atendidos, e então, caso possivel, trabalhar em cima delas</t>
+  </si>
+  <si>
+    <t>Risco Aceitável</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +188,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,93 +222,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -301,28 +265,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -332,59 +300,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,92 +667,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B73247-309A-4521-BEF6-BCEB7CB9758F}">
-  <dimension ref="C2:AC30"/>
+  <dimension ref="C3:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="99.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="19" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="2"/>
+      <c r="S4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="5"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C5" s="11">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="13">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="14">
-        <v>2</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="17">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="12">
+        <v>2</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13">
+        <v>2</v>
+      </c>
+      <c r="N5" s="12">
         <v>4</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="13" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="6" t="s">
+      <c r="R5" s="2"/>
+      <c r="S5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="T5" s="1"/>
@@ -798,38 +783,38 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="13">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="14">
-        <v>2</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="17">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="12">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13">
+        <v>2</v>
+      </c>
+      <c r="N6" s="12">
         <v>4</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="6" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="T6" s="1"/>
@@ -841,38 +826,38 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C7" s="11">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="13">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="14">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="12">
+        <v>2</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="16">
         <v>1</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="17">
-        <v>4</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="13" t="s">
+      <c r="N7" s="17">
+        <v>2</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="6" t="s">
+      <c r="R7" s="2"/>
+      <c r="S7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="T7" s="1"/>
@@ -884,38 +869,38 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C8" s="11">
+      <c r="C8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="13">
-        <v>3</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="14">
-        <v>2</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="17">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="14">
+        <v>3</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13">
+        <v>2</v>
+      </c>
+      <c r="N8" s="18">
         <v>6</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="13" t="s">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="6" t="s">
+      <c r="R8" s="2"/>
+      <c r="S8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T8" s="1"/>
@@ -927,38 +912,38 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="7"/>
+      <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C9" s="11">
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="13">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="17">
         <v>1</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="14">
-        <v>3</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="17">
-        <v>3</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="13" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="15">
+        <v>3</v>
+      </c>
+      <c r="N9" s="22">
+        <v>3</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="6" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="T9" s="1"/>
@@ -970,39 +955,39 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="7"/>
+      <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C10" s="11">
+      <c r="C10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="13">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="17">
         <v>1</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="14">
-        <v>3</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="17">
-        <v>3</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="13" t="s">
+      <c r="L10" s="17"/>
+      <c r="M10" s="15">
+        <v>3</v>
+      </c>
+      <c r="N10" s="22">
+        <v>3</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="6" t="s">
-        <v>36</v>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1013,38 +998,38 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="7"/>
+      <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C11" s="11">
+      <c r="C11" s="4">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="13">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="14">
-        <v>3</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="17">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="14">
+        <v>3</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15">
+        <v>3</v>
+      </c>
+      <c r="N11" s="14">
         <v>9</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="13" t="s">
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="6" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="T11" s="1"/>
@@ -1056,38 +1041,38 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="7"/>
+      <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C12" s="11">
+      <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="13">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="17">
         <v>1</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="14">
-        <v>2</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="17">
-        <v>2</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="13" t="s">
+      <c r="L12" s="17"/>
+      <c r="M12" s="13">
+        <v>2</v>
+      </c>
+      <c r="N12" s="17">
+        <v>2</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="6" t="s">
+      <c r="R12" s="2"/>
+      <c r="S12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="T12" s="1"/>
@@ -1099,38 +1084,38 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C13" s="11">
+      <c r="C13" s="4">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="13">
-        <v>3</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="14">
-        <v>2</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="17">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="14">
+        <v>3</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13">
+        <v>2</v>
+      </c>
+      <c r="N13" s="23">
         <v>6</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="13" t="s">
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="6" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="T13" s="1"/>
@@ -1142,39 +1127,39 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="7"/>
+      <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C14" s="11">
+      <c r="C14" s="4">
         <v>12</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="13">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="17">
         <v>1</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="14">
-        <v>3</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="17">
-        <v>3</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="13" t="s">
+      <c r="L14" s="17"/>
+      <c r="M14" s="15">
+        <v>3</v>
+      </c>
+      <c r="N14" s="22">
+        <v>3</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="6" t="s">
-        <v>31</v>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1185,39 +1170,39 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="7"/>
+      <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C15" s="11">
+      <c r="C15" s="4">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="13">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="17">
         <v>1</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="14">
-        <v>3</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="17">
-        <v>3</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="13" t="s">
+      <c r="L15" s="17"/>
+      <c r="M15" s="15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="22">
+        <v>3</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="6" t="s">
-        <v>32</v>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1228,39 +1213,39 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="7"/>
+      <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C16" s="11">
+      <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="13">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="17">
         <v>1</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="14">
-        <v>3</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="17">
-        <v>3</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="6" t="s">
-        <v>33</v>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15">
+        <v>3</v>
+      </c>
+      <c r="N16" s="22">
+        <v>3</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1271,116 +1256,226 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="7"/>
+      <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C17" s="12">
+      <c r="C17" s="4">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="15">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="17">
         <v>1</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="16">
-        <v>3</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="18">
-        <v>3</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="15" t="s">
+      <c r="L17" s="17"/>
+      <c r="M17" s="15">
+        <v>3</v>
+      </c>
+      <c r="N17" s="22">
+        <v>3</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="8" t="s">
+      <c r="R17" s="2"/>
+      <c r="S17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="9"/>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D26" s="10" t="s">
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="25">
-        <v>3</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="J21" s="2"/>
+      <c r="K21" s="9">
         <v>6</v>
       </c>
-      <c r="G26" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D27" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="26">
-        <v>2</v>
-      </c>
-      <c r="F27" s="30">
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="6">
         <v>4</v>
       </c>
-      <c r="G27" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D28" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="27">
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="I25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="10">
         <v>1</v>
       </c>
-      <c r="F28" s="27">
-        <v>2</v>
-      </c>
-      <c r="G28" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D29" s="23"/>
-      <c r="E29" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="D30" s="24"/>
-      <c r="E30" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="16" t="s">
-        <v>40</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentação/Planilha de Risco/riscos.xlsx
+++ b/Documentação/Planilha de Risco/riscos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nova pasta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Projeto-PI-Sprint2\Documentação\Planilha de Risco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C2665-8393-4FD9-83DB-9F074573C2DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D0EB0DE2-D01A-4E5B-82E2-747FDC46F3A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,8 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +195,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,7 +247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,16 +323,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -322,37 +339,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B73247-309A-4521-BEF6-BCEB7CB9758F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,56 +712,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="3" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="27" t="s">
         <v>8</v>
       </c>
       <c r="T4" s="1"/>
@@ -743,35 +776,36 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="12">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="20">
         <v>2</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13">
+      <c r="L5" s="20"/>
+      <c r="M5" s="10">
         <v>2</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="20">
+        <f>PRODUCT(K5:M5)</f>
         <v>4</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="2" t="s">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="3" t="s">
+      <c r="R5" s="16"/>
+      <c r="S5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="T5" s="1"/>
@@ -786,35 +820,36 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="12">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="20">
         <v>2</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13">
+      <c r="L6" s="20"/>
+      <c r="M6" s="10">
         <v>2</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="20">
+        <f t="shared" ref="N6:N17" si="0">PRODUCT(K6:M6)</f>
         <v>4</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="2" t="s">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3" t="s">
+      <c r="R6" s="16"/>
+      <c r="S6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="T6" s="1"/>
@@ -829,35 +864,36 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="12">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="20">
         <v>2</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="16">
+      <c r="L7" s="20"/>
+      <c r="M7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="22">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="2" t="s">
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3" t="s">
+      <c r="R7" s="16"/>
+      <c r="S7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="T7" s="1"/>
@@ -872,35 +908,36 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="14">
-        <v>3</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="19">
+        <v>3</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="10">
         <v>2</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="21">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="2" t="s">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3" t="s">
+      <c r="R8" s="16"/>
+      <c r="S8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T8" s="1"/>
@@ -915,35 +952,36 @@
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="17">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18">
         <v>1</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15">
-        <v>3</v>
-      </c>
-      <c r="N9" s="22">
-        <v>3</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="2" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="11">
+        <v>3</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3" t="s">
+      <c r="R9" s="16"/>
+      <c r="S9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T9" s="1"/>
@@ -958,35 +996,36 @@
       <c r="AC9" s="1"/>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="17">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18">
         <v>1</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="15">
-        <v>3</v>
-      </c>
-      <c r="N10" s="22">
-        <v>3</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="2" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="11">
+        <v>3</v>
+      </c>
+      <c r="N10" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3" t="s">
+      <c r="R10" s="16"/>
+      <c r="S10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T10" s="1"/>
@@ -1001,35 +1040,36 @@
       <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="14">
-        <v>3</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15">
-        <v>3</v>
-      </c>
-      <c r="N11" s="14">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19">
+        <v>3</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="11">
+        <v>3</v>
+      </c>
+      <c r="N11" s="19">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="2" t="s">
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3" t="s">
+      <c r="R11" s="16"/>
+      <c r="S11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="T11" s="1"/>
@@ -1044,35 +1084,36 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="17">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18">
         <v>1</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="13">
+      <c r="L12" s="18"/>
+      <c r="M12" s="10">
         <v>2</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="18">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="2" t="s">
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3" t="s">
+      <c r="R12" s="16"/>
+      <c r="S12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="T12" s="1"/>
@@ -1087,35 +1128,36 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="14">
-        <v>3</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="10">
         <v>2</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="21">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="2" t="s">
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3" t="s">
+      <c r="R13" s="16"/>
+      <c r="S13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T13" s="1"/>
@@ -1130,35 +1172,36 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="17">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18">
         <v>1</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15">
-        <v>3</v>
-      </c>
-      <c r="N14" s="22">
-        <v>3</v>
-      </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="2" t="s">
+      <c r="L14" s="18"/>
+      <c r="M14" s="11">
+        <v>3</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="16"/>
+      <c r="S14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T14" s="1"/>
@@ -1173,35 +1216,36 @@
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="17">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18">
         <v>1</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15">
-        <v>3</v>
-      </c>
-      <c r="N15" s="22">
-        <v>3</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="2" t="s">
+      <c r="L15" s="18"/>
+      <c r="M15" s="11">
+        <v>3</v>
+      </c>
+      <c r="N15" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3" t="s">
+      <c r="R15" s="16"/>
+      <c r="S15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T15" s="1"/>
@@ -1216,35 +1260,36 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="17">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18">
         <v>1</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15">
-        <v>3</v>
-      </c>
-      <c r="N16" s="22">
-        <v>3</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="2" t="s">
+      <c r="L16" s="18"/>
+      <c r="M16" s="11">
+        <v>3</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3" t="s">
+      <c r="R16" s="16"/>
+      <c r="S16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T16" s="1"/>
@@ -1259,35 +1304,36 @@
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="17">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18">
         <v>1</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15">
-        <v>3</v>
-      </c>
-      <c r="N17" s="22">
-        <v>3</v>
-      </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="2" t="s">
+      <c r="L17" s="18"/>
+      <c r="M17" s="11">
+        <v>3</v>
+      </c>
+      <c r="N17" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3" t="s">
+      <c r="R17" s="16"/>
+      <c r="S17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="T17" s="1"/>
@@ -1302,119 +1348,157 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="19" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="D19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="I19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="N19" s="11"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="7">
+      <c r="J20" s="16"/>
+      <c r="K20" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9">
+      <c r="J21" s="16"/>
+      <c r="K21" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>1</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="6">
+      <c r="J22" s="16"/>
+      <c r="K22" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="21">
+      <c r="J23" s="16"/>
+      <c r="K23" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="8">
+      <c r="J24" s="16"/>
+      <c r="K24" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="10">
+      <c r="J25" s="15"/>
+      <c r="K25" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="D16:J16"/>
@@ -1431,50 +1515,12 @@
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
